--- a/Country_data/fert_countries.xlsx
+++ b/Country_data/fert_countries.xlsx
@@ -216,6 +216,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/Country_data/fert_countries.xlsx
+++ b/Country_data/fert_countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/salaubol_msu_edu/Documents/Research/Fert_x_Conflict/Country_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{A3E9F513-811E-44C4-BF4D-B26B9C29C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F40CA41-0FE8-44A2-8371-38A92B3B2DE2}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{A3E9F513-811E-44C4-BF4D-B26B9C29C9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A773F549-C165-451B-9F56-459FA4E7B0D6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{DC421129-2036-46FD-919B-CF7B0F5D26AF}"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="8994" xr2:uid="{DC421129-2036-46FD-919B-CF7B0F5D26AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5167" uniqueCount="44">
   <si>
     <t>Country</t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>Urea</t>
   </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
 </sst>
 </file>
 
@@ -219,6 +222,14 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -519,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8EC609-6FFA-492F-B565-8ADE30DB2A9A}">
-  <dimension ref="A1:F1721"/>
+  <dimension ref="A1:F1722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A1714" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A1722" sqref="A1722"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -30528,6 +30539,11 @@
         <v>2020</v>
       </c>
     </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1722" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
